--- a/DATA_goal/Junction_Flooding_211.xlsx
+++ b/DATA_goal/Junction_Flooding_211.xlsx
@@ -655,103 +655,103 @@
         <v>41643.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.35</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.99</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.97</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.29</v>
+        <v>2.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>266.2</v>
+        <v>26.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.05</v>
+        <v>5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.24</v>
+        <v>3.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.81</v>
+        <v>2.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.98</v>
+        <v>5.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41643.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.11</v>
+        <v>4.91</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.64</v>
+        <v>4.06</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>69.76000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.75</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.37</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>265.09</v>
+        <v>26.51</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.07</v>
+        <v>5.01</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.47</v>
+        <v>3.35</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.73</v>
+        <v>3.37</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.09</v>
+        <v>6.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41643.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.39</v>
+        <v>4.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.25</v>
+        <v>3.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.18</v>
+        <v>6.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.35</v>
+        <v>2.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.59</v>
+        <v>22.16</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.09</v>
+        <v>4.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.18</v>
+        <v>2.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.82</v>
+        <v>2.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="AF4" s="4" t="n">
-        <v>54.41</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>7.79</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41643.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>49.85</v>
+        <v>4.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.24</v>
+        <v>4.12</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.52</v>
+        <v>7.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.92</v>
+        <v>2.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.75</v>
+        <v>2.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.37</v>
+        <v>26.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.47</v>
+        <v>5.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.93</v>
+        <v>3.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.01</v>
+        <v>1.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.15</v>
+        <v>3.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.05</v>
+        <v>2.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.81</v>
+        <v>6.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41643.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>42.6</v>
+        <v>4.26</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>35.23</v>
+        <v>3.52</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>61.6</v>
+        <v>6.16</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>227.31</v>
+        <v>22.73</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>43.14</v>
+        <v>4.31</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>29.01</v>
+        <v>2.9</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.39</v>
+        <v>1.54</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>29.63</v>
+        <v>2.96</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>55.8</v>
+        <v>5.58</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41643.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="N7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U7" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R7" s="4" t="n">
+      <c r="V7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>4.63</v>
-      </c>
       <c r="AA7" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41643.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>62.42</v>
+        <v>6.24</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41643.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>23.67</v>
+        <v>2.37</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>31.25</v>
+        <v>3.12</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>123.13</v>
+        <v>12.31</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>23.89</v>
+        <v>2.39</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>28.09</v>
+        <v>2.81</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41643.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>45.35</v>
+        <v>4.54</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_211.xlsx
+++ b/DATA_goal/Junction_Flooding_211.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44892.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44892.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.25</v>
+        <v>42.49</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.59</v>
+        <v>35.9</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.38</v>
+        <v>53.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.28</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.22</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.69</v>
+        <v>226.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.26</v>
+        <v>42.65</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.95</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.69</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.66</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.21</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.82</v>
+        <v>48.23</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44892.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.22</v>
+        <v>32.17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.12</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.66</v>
+        <v>46.62</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.68</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.98</v>
+        <v>169.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.37</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.34</v>
+        <v>23.44</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.01</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44892.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.61</v>
+        <v>46.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.99</v>
+        <v>169.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.15</v>
+        <v>41.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_211.xlsx
+++ b/DATA_goal/Junction_Flooding_211.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44892.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.91</v>
+        <v>19.909</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>15.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.046</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.49</v>
+        <v>42.494</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.9</v>
+        <v>35.897</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.26</v>
+        <v>15.257</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.77</v>
+        <v>53.768</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.28</v>
+        <v>23.278</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.61</v>
+        <v>10.608</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.34</v>
+        <v>16.344</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.46</v>
+        <v>17.462</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.94</v>
+        <v>17.943</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.85</v>
+        <v>4.854</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.22</v>
+        <v>15.218</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.87</v>
+        <v>21.868</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>12.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>226.92</v>
+        <v>226.918</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>42.65</v>
+        <v>42.648</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.95</v>
+        <v>13.946</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.69</v>
+        <v>28.686</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.71</v>
+        <v>15.714</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.04</v>
+        <v>2.044</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.66</v>
+        <v>28.655</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.947</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.059</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.59</v>
+        <v>12.586</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.21</v>
+        <v>18.213</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.23</v>
+        <v>48.225</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>8.380000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.48</v>
+        <v>17.477</v>
       </c>
     </row>
     <row r="4">
@@ -863,91 +863,91 @@
         <v>44892.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.06</v>
+        <v>15.061</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.47</v>
+        <v>11.475</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.17</v>
+        <v>32.167</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.12</v>
+        <v>27.117</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.54</v>
+        <v>11.542</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.62</v>
+        <v>46.623</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.68</v>
+        <v>17.677</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>8.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.33</v>
+        <v>12.327</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>13.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.63</v>
+        <v>13.633</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.7</v>
+        <v>3.699</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.51</v>
+        <v>11.509</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.6</v>
+        <v>16.604</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.59</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.528</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.286</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.85</v>
+        <v>169.845</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.37</v>
+        <v>32.373</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.56</v>
+        <v>10.559</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.85</v>
+        <v>21.847</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.84</v>
+        <v>11.841</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.537</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.44</v>
+        <v>23.439</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>9.08</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.01</v>
+        <v>9.013999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.57</v>
+        <v>9.565</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.78</v>
+        <v>13.779</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>42.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.33</v>
+        <v>6.327</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.24</v>
+        <v>13.238</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44892.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.95</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_211.xlsx
+++ b/DATA_goal/Junction_Flooding_211.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,19 +967,19 @@
         <v>44892.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.03</v>
+        <v>15.029</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.39</v>
+        <v>11.391</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.677</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.23</v>
+        <v>32.227</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.04</v>
+        <v>27.039</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.58</v>
@@ -988,82 +988,186 @@
         <v>46.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.779</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.09</v>
+        <v>8.086</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.08</v>
+        <v>13.077</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.68</v>
+        <v>13.682</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.718</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.538</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.63</v>
+        <v>16.631</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>169.9</v>
+        <v>169.902</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.38</v>
+        <v>32.384</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.604</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.9</v>
+        <v>21.901</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.771</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.91</v>
+        <v>22.911</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.18</v>
+        <v>9.182</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.76</v>
+        <v>13.756</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.52</v>
+        <v>41.525</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.285</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.29</v>
+        <v>13.289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44892.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.95</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_211.xlsx
+++ b/DATA_goal/Junction_Flooding_211.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,19 +967,19 @@
         <v>44892.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.029</v>
+        <v>15.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.391</v>
+        <v>11.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.227</v>
+        <v>32.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.039</v>
+        <v>27.04</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.58</v>
@@ -988,186 +988,82 @@
         <v>46.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.779</v>
+        <v>17.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.086</v>
+        <v>8.09</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.077</v>
+        <v>13.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.682</v>
+        <v>13.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.718</v>
+        <v>3.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.538</v>
+        <v>11.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.631</v>
+        <v>16.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.621</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>169.902</v>
+        <v>169.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.384</v>
+        <v>32.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.604</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.901</v>
+        <v>21.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.771</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.911</v>
+        <v>22.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.182</v>
+        <v>9.18</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.632</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.756</v>
+        <v>13.76</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.525</v>
+        <v>41.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.285</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.289</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44892.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.95</v>
+        <v>13.29</v>
       </c>
     </row>
   </sheetData>
